--- a/testData/DWS.xlsx.xlsx
+++ b/testData/DWS.xlsx.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FirstName</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Kiran@123</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +400,7 @@
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -425,7 +428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -437,6 +440,9 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/testData/DWS.xlsx.xlsx
+++ b/testData/DWS.xlsx.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="RegisterdCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -55,9 +56,6 @@
   </si>
   <si>
     <t>Kiran@123</t>
-  </si>
-  <si>
-    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -386,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -400,7 +398,7 @@
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -428,7 +426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -440,9 +438,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -454,4 +449,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>